--- a/artfynd/A 69506-2021 artfynd.xlsx
+++ b/artfynd/A 69506-2021 artfynd.xlsx
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130889854</v>
+        <v>130889857</v>
       </c>
       <c r="B6" t="n">
-        <v>58039</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1187,26 +1187,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130889857</v>
+        <v>130889854</v>
       </c>
       <c r="B7" t="n">
-        <v>57877</v>
+        <v>58043</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1306,26 +1306,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
